--- a/01_datos/2020_04_13_01_acumulada.xlsx
+++ b/01_datos/2020_04_13_01_acumulada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiaguzmanmartinez/GitHub/covid19_mex/01_datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AC3B41-03F3-CD4C-80E7-9EF523B8893C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D06D90-8B5D-814F-B9C5-4922A15649FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
